--- a/regions/2/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
+++ b/regions/2/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
@@ -4,16 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -84,13 +88,13 @@
     <t>პირდაპირი უცხოური ინვესტიციები სამეგრელო-ზემო სვანეთის რეგიონში</t>
   </si>
   <si>
-    <t xml:space="preserve">  2022 *</t>
+    <t xml:space="preserve">  2024 *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -112,15 +116,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -208,6 +203,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -244,14 +246,14 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
@@ -259,53 +261,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -615,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -623,523 +625,521 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>2009</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>19899.917400000002</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>29824.231800000001</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>10072.712799999999</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>40560.314999999995</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>100357.177</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>2010</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>14906.147699999998</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>-12173.657499999999</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>-11352.316100000002</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>33959.567999999999</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>25339.742099999996</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <v>2011</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>15365.221221900001</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>13534.256696</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>22358.320200000009</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>18890.530599999998</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>70148.328717900018</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>2012</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>6041.2893369000003</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>38044.007703199997</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>2281.2848387999998</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>19871.603094799997</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>66238.184973699987</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>2013</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>14911.833499999999</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>29892.200699999998</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>72.184799999997182</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>21425.786199999999</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>66302.005199999985</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>2014</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>27301.854000000003</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>17359.565399999999</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>23131.394499999999</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>25637.856300000003</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>93430.670199999979</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="13">
         <v>2015</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>22609.85200000001</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>28257.945099999979</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>52128.690399999985</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>-52266.354299999992</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>50730.133199999982</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="13">
         <v>2016</v>
       </c>
-      <c r="B12" s="5">
-        <v>61524.419399999912</v>
-      </c>
-      <c r="C12" s="5">
-        <v>-6026.0952000000007</v>
-      </c>
-      <c r="D12" s="5">
-        <v>14450.295100000003</v>
-      </c>
-      <c r="E12" s="5">
-        <v>-34861.819699999978</v>
-      </c>
-      <c r="F12" s="4">
-        <v>35086.799599999926</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="B12" s="4">
+        <v>61524.419499999451</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-6026.0952000000016</v>
+      </c>
+      <c r="D12" s="4">
+        <v>14450.295099999998</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-34861.819799999997</v>
+      </c>
+      <c r="F12" s="3">
+        <v>35086.799599999445</v>
+      </c>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <v>2017</v>
       </c>
-      <c r="B13" s="5">
-        <v>5208.1838999999991</v>
-      </c>
-      <c r="C13" s="5">
-        <v>-8169.2106000000003</v>
-      </c>
-      <c r="D13" s="5">
-        <v>32823.347500000018</v>
-      </c>
-      <c r="E13" s="5">
-        <v>25319.617900000005</v>
-      </c>
-      <c r="F13" s="4">
-        <v>55181.938700000021</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="B13" s="4">
+        <v>5208.1835999999994</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-8169.2106999999996</v>
+      </c>
+      <c r="D13" s="4">
+        <v>32823.347500000003</v>
+      </c>
+      <c r="E13" s="4">
+        <v>25319.617799999989</v>
+      </c>
+      <c r="F13" s="3">
+        <v>55181.93819999999</v>
+      </c>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="13">
         <v>2018</v>
       </c>
-      <c r="B14" s="5">
-        <v>5479.7717999999995</v>
-      </c>
-      <c r="C14" s="5">
-        <v>-19490.2755</v>
-      </c>
-      <c r="D14" s="5">
-        <v>36344.982900000017</v>
-      </c>
-      <c r="E14" s="5">
-        <v>-31231.834100000022</v>
-      </c>
-      <c r="F14" s="4">
-        <v>-8897.3549000000057</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="B14" s="4">
+        <v>5479.7716999999984</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-19490.275300000005</v>
+      </c>
+      <c r="D14" s="4">
+        <v>36344.983</v>
+      </c>
+      <c r="E14" s="4">
+        <v>-31231.834100000026</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-8897.3547000000326</v>
+      </c>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="13">
         <v>2019</v>
       </c>
-      <c r="B15" s="5">
-        <v>12222.145199999997</v>
-      </c>
-      <c r="C15" s="5">
-        <v>7510.2607000000016</v>
-      </c>
-      <c r="D15" s="5">
-        <v>30057.158400000004</v>
-      </c>
-      <c r="E15" s="5">
-        <v>-3926.8239999999987</v>
-      </c>
-      <c r="F15" s="4">
-        <v>45862.740299999998</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="B15" s="4">
+        <v>12222.144999999995</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7510.2607999999973</v>
+      </c>
+      <c r="D15" s="4">
+        <v>30057.158600000002</v>
+      </c>
+      <c r="E15" s="4">
+        <v>-3926.8241000000048</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45862.74029999999</v>
+      </c>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>2020</v>
       </c>
-      <c r="B16" s="5">
-        <v>7488.1395999999995</v>
-      </c>
-      <c r="C16" s="5">
-        <v>16382.926600000006</v>
-      </c>
-      <c r="D16" s="5">
-        <v>215.42160000001147</v>
-      </c>
-      <c r="E16" s="5">
-        <v>7462.8151999999991</v>
-      </c>
-      <c r="F16" s="4">
-        <v>31549.303000000014</v>
-      </c>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="B16" s="4">
+        <v>7488.1393000000044</v>
+      </c>
+      <c r="C16" s="4">
+        <v>16382.926899999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>215.42150000000373</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7462.8154000000004</v>
+      </c>
+      <c r="F16" s="3">
+        <v>31549.303100000005</v>
+      </c>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>2021</v>
       </c>
-      <c r="B17" s="5">
-        <v>482.82020000000017</v>
-      </c>
-      <c r="C17" s="5">
-        <v>-36391.556900000003</v>
-      </c>
-      <c r="D17" s="5">
-        <v>10365.908700000002</v>
-      </c>
-      <c r="E17" s="5">
-        <v>21087.730700000007</v>
-      </c>
-      <c r="F17" s="4">
-        <v>-4455.097299999994</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="B17" s="4">
+        <v>482.82059999999962</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-36391.556899999996</v>
+      </c>
+      <c r="D17" s="4">
+        <v>10365.908599999999</v>
+      </c>
+      <c r="E17" s="4">
+        <v>21237.774700000005</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-4305.0529999999926</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="4">
+        <v>13244.258999999998</v>
+      </c>
+      <c r="C18" s="4">
+        <v>8001.0465000000058</v>
+      </c>
+      <c r="D18" s="4">
+        <v>13988.0525</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-2231.5109000000007</v>
+      </c>
+      <c r="F18" s="3">
+        <v>33001.847099999999</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="4">
+        <v>30225.412599999989</v>
+      </c>
+      <c r="C19" s="4">
+        <v>8788.3860999999979</v>
+      </c>
+      <c r="D19" s="4">
+        <v>28836.601100000033</v>
+      </c>
+      <c r="E19" s="4">
+        <v>-10354.953999999996</v>
+      </c>
+      <c r="F19" s="3">
+        <v>57495.445800000016</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="5">
-        <v>15186.142700000002</v>
-      </c>
-      <c r="C18" s="5">
-        <v>9648.8523999999961</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4">
-        <v>24834.9951</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="B20" s="4">
+        <v>18752.271900000007</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3">
+        <v>18752.271900000007</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-    </row>
-    <row r="27" spans="1:16" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regions/2/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
+++ b/regions/2/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,17 +297,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -620,7 +620,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,14 +630,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -649,19 +649,19 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="12"/>
@@ -988,11 +988,13 @@
       <c r="B20" s="4">
         <v>18752.271900000007</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4">
+        <v>864.83710000000417</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="3">
-        <v>18752.271900000007</v>
+        <v>19617.109000000011</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1121,17 +1123,17 @@
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
